--- a/deliverables/database scripts/double_pastors.xlsx
+++ b/deliverables/database scripts/double_pastors.xlsx
@@ -193,7 +193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +331,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -677,7 +684,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -685,6 +692,7 @@
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1008,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A10" activeCellId="3" sqref="A3 A6 A9 A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1122,7 +1130,7 @@
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="7">
         <v>38</v>
       </c>
       <c r="B2" t="s">
@@ -1328,7 +1336,7 @@
       <c r="AB4" s="1"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="7">
         <v>231</v>
       </c>
       <c r="B5" t="s">
@@ -1534,7 +1542,7 @@
       <c r="AB7" s="1"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+      <c r="A8" s="7">
         <v>248</v>
       </c>
       <c r="B8" t="s">
